--- a/ptest.xlsx
+++ b/ptest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="612" windowWidth="22980" windowHeight="8988" firstSheet="20" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="612" windowWidth="22980" windowHeight="8988" firstSheet="21" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="bk" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,10 @@
     <sheet name="Aug" sheetId="29" r:id="rId29"/>
     <sheet name="Sheet7" sheetId="30" r:id="rId30"/>
     <sheet name="Sep" sheetId="31" r:id="rId31"/>
+    <sheet name="Oct" sheetId="32" r:id="rId32"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">Aug!$D$7:$G$26</definedName>
@@ -48,52 +49,62 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">July!$D$7:$G$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">June!$D$7:$G$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">May!$D$7:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">Oct!$D$7:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">Sep!$D$7:$G$26</definedName>
     <definedName name="Beg_Bal" localSheetId="26">'Personal Loan'!$C$18:$C$497</definedName>
     <definedName name="Beg_Bal">'CanFin Home Loan schedule'!$C$18:$C$497</definedName>
     <definedName name="chart_balance" localSheetId="28">OFFSET(#REF!,2,0,Aug!payments,1)</definedName>
     <definedName name="chart_balance" localSheetId="22">OFFSET(#REF!,2,0,July!payments,1)</definedName>
+    <definedName name="chart_balance" localSheetId="31">OFFSET(#REF!,2,0,Oct!payments,1)</definedName>
     <definedName name="chart_balance" localSheetId="26">OFFSET(#REF!,2,0,'Personal Loan'!payments,1)</definedName>
     <definedName name="chart_balance" localSheetId="30">OFFSET(#REF!,2,0,Sep!payments,1)</definedName>
     <definedName name="chart_balance">OFFSET(#REF!,2,0,payments,1)</definedName>
     <definedName name="chart_balance_noextra" localSheetId="28">OFFSET([1]NoExtra!$G$2,2,0,Aug!nper,1)</definedName>
     <definedName name="chart_balance_noextra" localSheetId="22">OFFSET([1]NoExtra!$G$2,2,0,July!nper,1)</definedName>
+    <definedName name="chart_balance_noextra" localSheetId="31">OFFSET([1]NoExtra!$G$2,2,0,Oct!nper,1)</definedName>
     <definedName name="chart_balance_noextra" localSheetId="26">OFFSET([1]NoExtra!$G$2,2,0,'Personal Loan'!nper,1)</definedName>
     <definedName name="chart_balance_noextra" localSheetId="30">OFFSET([1]NoExtra!$G$2,2,0,Sep!nper,1)</definedName>
     <definedName name="chart_balance_noextra">OFFSET([1]NoExtra!$G$2,2,0,nper,1)</definedName>
     <definedName name="chart_date" localSheetId="28">OFFSET(#REF!,2,0,Aug!nper,1)</definedName>
     <definedName name="chart_date" localSheetId="22">OFFSET(#REF!,2,0,July!nper,1)</definedName>
+    <definedName name="chart_date" localSheetId="31">OFFSET(#REF!,2,0,Oct!nper,1)</definedName>
     <definedName name="chart_date" localSheetId="26">OFFSET(#REF!,2,0,'Personal Loan'!nper,1)</definedName>
     <definedName name="chart_date" localSheetId="30">OFFSET(#REF!,2,0,Sep!nper,1)</definedName>
     <definedName name="chart_date">OFFSET(#REF!,2,0,nper,1)</definedName>
     <definedName name="chart_date_noextra" localSheetId="28">OFFSET([1]NoExtra!$B$2,2,0,Aug!nper,1)</definedName>
     <definedName name="chart_date_noextra" localSheetId="22">OFFSET([1]NoExtra!$B$2,2,0,July!nper,1)</definedName>
+    <definedName name="chart_date_noextra" localSheetId="31">OFFSET([1]NoExtra!$B$2,2,0,Oct!nper,1)</definedName>
     <definedName name="chart_date_noextra" localSheetId="26">OFFSET([1]NoExtra!$B$2,2,0,'Personal Loan'!nper,1)</definedName>
     <definedName name="chart_date_noextra" localSheetId="30">OFFSET([1]NoExtra!$B$2,2,0,Sep!nper,1)</definedName>
     <definedName name="chart_date_noextra">OFFSET([1]NoExtra!$B$2,2,0,nper,1)</definedName>
     <definedName name="chart_nper" localSheetId="28">ROW(OFFSET(#REF!,0,0,Aug!nper,1))</definedName>
     <definedName name="chart_nper" localSheetId="22">ROW(OFFSET(#REF!,0,0,July!nper,1))</definedName>
+    <definedName name="chart_nper" localSheetId="31">ROW(OFFSET(#REF!,0,0,Oct!nper,1))</definedName>
     <definedName name="chart_nper" localSheetId="26">ROW(OFFSET(#REF!,0,0,'Personal Loan'!nper,1))</definedName>
     <definedName name="chart_nper" localSheetId="30">ROW(OFFSET(#REF!,0,0,Sep!nper,1))</definedName>
     <definedName name="chart_nper">ROW(OFFSET(#REF!,0,0,nper,1))</definedName>
     <definedName name="chart_ratehist" localSheetId="28">OFFSET(#REF!,2,0,Aug!payments,1)</definedName>
     <definedName name="chart_ratehist" localSheetId="22">OFFSET(#REF!,2,0,July!payments,1)</definedName>
+    <definedName name="chart_ratehist" localSheetId="31">OFFSET(#REF!,2,0,Oct!payments,1)</definedName>
     <definedName name="chart_ratehist" localSheetId="26">OFFSET(#REF!,2,0,'Personal Loan'!payments,1)</definedName>
     <definedName name="chart_ratehist" localSheetId="30">OFFSET(#REF!,2,0,Sep!payments,1)</definedName>
     <definedName name="chart_ratehist">OFFSET(#REF!,2,0,payments,1)</definedName>
     <definedName name="chart_taxreturned" localSheetId="28">OFFSET(#REF!,2,0,Aug!payments,1)</definedName>
     <definedName name="chart_taxreturned" localSheetId="22">OFFSET(#REF!,2,0,July!payments,1)</definedName>
+    <definedName name="chart_taxreturned" localSheetId="31">OFFSET(#REF!,2,0,Oct!payments,1)</definedName>
     <definedName name="chart_taxreturned" localSheetId="26">OFFSET(#REF!,2,0,'Personal Loan'!payments,1)</definedName>
     <definedName name="chart_taxreturned" localSheetId="30">OFFSET(#REF!,2,0,Sep!payments,1)</definedName>
     <definedName name="chart_taxreturned">OFFSET(#REF!,2,0,payments,1)</definedName>
     <definedName name="compound_period" localSheetId="28">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="compound_period" localSheetId="22">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
+    <definedName name="compound_period" localSheetId="31">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="compound_period" localSheetId="26">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="compound_period" localSheetId="30">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="compound_period">INDEX({2,12},MATCH(#REF!,compound_periods,0))</definedName>
     <definedName name="compound_periods">{"Semi-Annually";"Monthly"}</definedName>
     <definedName name="CP" localSheetId="28">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="CP" localSheetId="22">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
+    <definedName name="CP" localSheetId="31">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="CP" localSheetId="26">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="CP" localSheetId="30">INDEX({2,12},MATCH(#REF!,[0]!compound_periods,0))</definedName>
     <definedName name="CP">INDEX({2,12},MATCH(#REF!,compound_periods,0))</definedName>
@@ -101,6 +112,7 @@
     <definedName name="Cum_Int">'CanFin Home Loan schedule'!$J$18:$J$497</definedName>
     <definedName name="d" localSheetId="28">#REF!</definedName>
     <definedName name="d" localSheetId="22">#REF!</definedName>
+    <definedName name="d" localSheetId="31">#REF!</definedName>
     <definedName name="d" localSheetId="26">#REF!</definedName>
     <definedName name="d" localSheetId="30">#REF!</definedName>
     <definedName name="d">#REF!</definedName>
@@ -112,6 +124,7 @@
     <definedName name="Extra_Pay">'CanFin Home Loan schedule'!$E$18:$E$497</definedName>
     <definedName name="fpdate" localSheetId="28">#REF!</definedName>
     <definedName name="fpdate" localSheetId="22">#REF!</definedName>
+    <definedName name="fpdate" localSheetId="31">#REF!</definedName>
     <definedName name="fpdate" localSheetId="26">#REF!</definedName>
     <definedName name="fpdate" localSheetId="30">#REF!</definedName>
     <definedName name="fpdate">#REF!</definedName>
@@ -134,16 +147,19 @@
     <definedName name="Loan_Years">'CanFin Home Loan schedule'!$D$7</definedName>
     <definedName name="monthly_payment" localSheetId="28">-PMT((((1+#REF!/Aug!CP)^(Aug!CP/12))-1),Aug!term*12,[0]!Loan_Amount)</definedName>
     <definedName name="monthly_payment" localSheetId="22">-PMT((((1+#REF!/July!CP)^(July!CP/12))-1),July!term*12,[0]!Loan_Amount)</definedName>
+    <definedName name="monthly_payment" localSheetId="31">-PMT((((1+#REF!/Oct!CP)^(Oct!CP/12))-1),Oct!term*12,[0]!Loan_Amount)</definedName>
     <definedName name="monthly_payment" localSheetId="26">-PMT((((1+#REF!/'Personal Loan'!CP)^('Personal Loan'!CP/12))-1),'Personal Loan'!term*12,'Personal Loan'!Loan_Amount)</definedName>
     <definedName name="monthly_payment" localSheetId="30">-PMT((((1+#REF!/Sep!CP)^(Sep!CP/12))-1),Sep!term*12,[0]!Loan_Amount)</definedName>
     <definedName name="monthly_payment">-PMT((((1+#REF!/CP)^(CP/12))-1),term*12,[0]!Loan_Amount)</definedName>
     <definedName name="months_per_period" localSheetId="28">INDEX({1,0.5,0.5,0.25,0.5,0.25},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="months_per_period" localSheetId="22">INDEX({1,0.5,0.5,0.25,0.5,0.25},MATCH(#REF!,[0]!frequency,0))</definedName>
+    <definedName name="months_per_period" localSheetId="31">INDEX({1,0.5,0.5,0.25,0.5,0.25},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="months_per_period" localSheetId="26">INDEX({1,0.5,0.5,0.25,0.5,0.25},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="months_per_period" localSheetId="30">INDEX({1,0.5,0.5,0.25,0.5,0.25},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="months_per_period">INDEX({1,0.5,0.5,0.25,0.5,0.25},MATCH(#REF!,frequency,0))</definedName>
     <definedName name="nper" localSheetId="28">Aug!term*Aug!periods_per_year</definedName>
     <definedName name="nper" localSheetId="22">July!term*July!periods_per_year</definedName>
+    <definedName name="nper" localSheetId="31">Oct!term*Oct!periods_per_year</definedName>
     <definedName name="nper" localSheetId="26">'Personal Loan'!term*'Personal Loan'!periods_per_year</definedName>
     <definedName name="nper" localSheetId="30">Sep!term*Sep!periods_per_year</definedName>
     <definedName name="nper">term*periods_per_year</definedName>
@@ -157,26 +173,31 @@
     <definedName name="Pay_Num">'CanFin Home Loan schedule'!$A$18:$A$497</definedName>
     <definedName name="payment" localSheetId="28">#REF!</definedName>
     <definedName name="payment" localSheetId="22">#REF!</definedName>
+    <definedName name="payment" localSheetId="31">#REF!</definedName>
     <definedName name="payment" localSheetId="26">#REF!</definedName>
     <definedName name="payment" localSheetId="30">#REF!</definedName>
     <definedName name="payment">#REF!</definedName>
     <definedName name="Payment_Date" localSheetId="28">DATE(YEAR([0]!Loan_Start),MONTH([0]!Loan_Start)+Payment_Number,DAY([0]!Loan_Start))</definedName>
     <definedName name="Payment_Date" localSheetId="22">DATE(YEAR([0]!Loan_Start),MONTH([0]!Loan_Start)+Payment_Number,DAY([0]!Loan_Start))</definedName>
+    <definedName name="Payment_Date" localSheetId="31">DATE(YEAR([0]!Loan_Start),MONTH([0]!Loan_Start)+Payment_Number,DAY([0]!Loan_Start))</definedName>
     <definedName name="Payment_Date" localSheetId="26">DATE(YEAR('Personal Loan'!Loan_Start),MONTH('Personal Loan'!Loan_Start)+Payment_Number,DAY('Personal Loan'!Loan_Start))</definedName>
     <definedName name="Payment_Date" localSheetId="30">DATE(YEAR([0]!Loan_Start),MONTH([0]!Loan_Start)+Payment_Number,DAY([0]!Loan_Start))</definedName>
     <definedName name="Payment_Date">DATE(YEAR(Loan_Start),MONTH(Loan_Start)+Payment_Number,DAY(Loan_Start))</definedName>
     <definedName name="payments" localSheetId="28">MAX(#REF!)</definedName>
     <definedName name="payments" localSheetId="22">MAX(#REF!)</definedName>
+    <definedName name="payments" localSheetId="31">MAX(#REF!)</definedName>
     <definedName name="payments" localSheetId="26">MAX(#REF!)</definedName>
     <definedName name="payments" localSheetId="30">MAX(#REF!)</definedName>
     <definedName name="payments">MAX(#REF!)</definedName>
     <definedName name="periods_per_year" localSheetId="28">INDEX({12,24,26,52,26,52},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="periods_per_year" localSheetId="22">INDEX({12,24,26,52,26,52},MATCH(#REF!,[0]!frequency,0))</definedName>
+    <definedName name="periods_per_year" localSheetId="31">INDEX({12,24,26,52,26,52},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="periods_per_year" localSheetId="26">INDEX({12,24,26,52,26,52},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="periods_per_year" localSheetId="30">INDEX({12,24,26,52,26,52},MATCH(#REF!,[0]!frequency,0))</definedName>
     <definedName name="periods_per_year">INDEX({12,24,26,52,26,52},MATCH(#REF!,frequency,0))</definedName>
     <definedName name="ppy" localSheetId="28">Aug!periods_per_year</definedName>
     <definedName name="ppy" localSheetId="22">July!periods_per_year</definedName>
+    <definedName name="ppy" localSheetId="31">Oct!periods_per_year</definedName>
     <definedName name="ppy" localSheetId="26">'Personal Loan'!periods_per_year</definedName>
     <definedName name="ppy" localSheetId="30">Sep!periods_per_year</definedName>
     <definedName name="ppy">periods_per_year</definedName>
@@ -198,11 +219,13 @@
     <definedName name="Scheduled_Monthly_Payment">'CanFin Home Loan schedule'!$J$5</definedName>
     <definedName name="start_rate" localSheetId="28">#REF!</definedName>
     <definedName name="start_rate" localSheetId="22">#REF!</definedName>
+    <definedName name="start_rate" localSheetId="31">#REF!</definedName>
     <definedName name="start_rate" localSheetId="26">#REF!</definedName>
     <definedName name="start_rate" localSheetId="30">#REF!</definedName>
     <definedName name="start_rate">#REF!</definedName>
     <definedName name="term" localSheetId="28">#REF!</definedName>
     <definedName name="term" localSheetId="22">#REF!</definedName>
+    <definedName name="term" localSheetId="31">#REF!</definedName>
     <definedName name="term" localSheetId="26">#REF!</definedName>
     <definedName name="term" localSheetId="30">#REF!</definedName>
     <definedName name="term">#REF!</definedName>
@@ -215,6 +238,7 @@
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="variable" localSheetId="28">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
     <definedName name="variable" localSheetId="22">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
+    <definedName name="variable" localSheetId="31">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
     <definedName name="variable" localSheetId="26">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
     <definedName name="variable" localSheetId="30">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
     <definedName name="variable">IF(#REF!="Variable Rate",TRUE,FALSE)</definedName>
@@ -326,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="312">
   <si>
     <t>UCO</t>
   </si>
@@ -49493,10 +49517,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:L49"/>
+  <dimension ref="A5:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C43"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49833,6 +49857,27 @@
       <c r="L49">
         <f>SUM(L19:L48)</f>
         <v>15712.75</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10">
+      <c r="J118">
+        <v>15216</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10">
+      <c r="J119">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10">
+      <c r="J120">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10">
+      <c r="J121" s="5">
+        <f>SUM(J118:J120)</f>
+        <v>55716</v>
       </c>
     </row>
   </sheetData>
@@ -49846,7 +49891,7 @@
   <dimension ref="D7:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -50031,7 +50076,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="H16" s="20"/>
       <c r="M16" t="s">
@@ -50226,6 +50271,396 @@
         <f>E26-82500</f>
         <v>80726.820000000007</v>
       </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:G26"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:23">
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="4:23">
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="4:23">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12550</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="4:23">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9225</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="4:23">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="4:23">
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="4:23">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" t="s">
+        <v>284</v>
+      </c>
+      <c r="S14" t="s">
+        <v>289</v>
+      </c>
+      <c r="V14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="4:23">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>281</v>
+      </c>
+      <c r="N15">
+        <f>70000-40000</f>
+        <v>30000</v>
+      </c>
+      <c r="P15" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q15">
+        <v>250</v>
+      </c>
+      <c r="S15" t="s">
+        <v>290</v>
+      </c>
+      <c r="T15">
+        <v>28300</v>
+      </c>
+      <c r="V15" t="s">
+        <v>293</v>
+      </c>
+      <c r="W15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="4:23">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1">
+        <v>678</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="M16" t="s">
+        <v>282</v>
+      </c>
+      <c r="N16">
+        <v>75000</v>
+      </c>
+      <c r="P16" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16">
+        <v>235.52</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20">
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <f>499+(499*18%)</f>
+        <v>588.81999999999994</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="M17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N17">
+        <v>40000</v>
+      </c>
+      <c r="P17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q17">
+        <v>3272.85</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20">
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="N18">
+        <f>SUM(N15:N17)</f>
+        <v>145000</v>
+      </c>
+      <c r="P18" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20">
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1">
+        <v>340</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>295</v>
+      </c>
+      <c r="P19" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20">
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="1">
+        <v>33000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20">
+      <c r="D21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15300</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20">
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20">
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20">
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(Q15:Q23)</f>
+        <v>5167.37</v>
+      </c>
+      <c r="T24">
+        <f>SUM(T15:T23)</f>
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20">
+      <c r="D25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20">
+      <c r="E26" s="1">
+        <f>SUM(E8:E25)</f>
+        <v>76981.820000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20">
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="D7:G26"/>
